--- a/biology/Médecine/Eleanor_Montague/Eleanor_Montague.xlsx
+++ b/biology/Médecine/Eleanor_Montague/Eleanor_Montague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleanor D. Montague (11 février 1926 - 9 novembre 2018)[1] est une radiologue et enseignante américaine qui établit la thérapie de conservation du sein aux États-Unis et améliore les techniques de radiothérapie[2]. Elle devient membre du Texas Women's Hall of Fame en 1993[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleanor D. Montague (11 février 1926 - 9 novembre 2018) est une radiologue et enseignante américaine qui établit la thérapie de conservation du sein aux États-Unis et améliore les techniques de radiothérapie. Elle devient membre du Texas Women's Hall of Fame en 1993,.
 </t>
         </is>
       </c>
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Eleanor Montague naît Eleanor Dino à Gênes, en Italie, enfant unique de Frank et Sylvia Dino[2]. Elle grandit en Pennsylvanie et sort major de sa classe[4],[5].
-Carrière
-Eleanor Montague obtient une licence en biologie de l'université de l'Alabama[6] et un diplôme de médecine du Woman's Medical College de Pennsylvanie en 1950. Elle rencontre son mari, Meredith "Monty" Eleanor Montague III, alors qu'elle travaille aux urgences du Kings County Hospital Center et l'épouse quelques années plus tard[3]. Elle travaille au Japon pendant deux ans alors que son mari y est stationné dans une unité MASH. Elle fait sa résidence en radiologie au Columbia-Presbyterian Medical Center. En 1959, Montague rejoint le département de radiothérapie du MD Anderson Cancer Center de l'université du Texas à Austin grâce à une bourse de l'American Cancer Society. Elle travaille au MD Anderson de 1961 à 1983. En 1973, elle devient professeure de radiothérapie[4] et prend sa retraite en 1987[2].
-Eleanor Montague est une pionnière de la recherche et du traitement du cancer du sein. Dans les années 1960-70, la mastectomie est considérée comme le seul remède contre ce cancer. Elle préconise plutôt la tumorectomie, une chirurgie plus modérée, associée à la radiothérapie pour préserver la fonction et l'apparence du sein chez les patientes atteintes d'un cancer du sein à un stade précoce. À la suite d'essais cliniques et d'un programme de traitement lancé par Eleanor Montague à Anderson, la thérapie de conservation du sein devient une pratique établie aux États-Unis[2]. Eleanor Montague est également à l'origine de nouvelles techniques et approches de radiothérapie pour les patientes atteintes d'un cancer du sein avancé et ouvre la voie à l'intégration de la chimiothérapie dans une approche thérapeutique multimodale[2].
-Un prix portant son nom, le Eleanor Montague Distinguished Resident Award in Radiation Oncology, est créé par l'American Association for Women Radiologists[4].
-Elle est membre du conseil d'administration de l'American Cancer Society of Therapeutic Radiologists et de l'exécutif de l'American Radium Society. Eleanor Montague fait partie du National Breast Cancer Task Force et du National Surgical Adjuvant Breast Project[6].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleanor Montague naît Eleanor Dino à Gênes, en Italie, enfant unique de Frank et Sylvia Dino. Elle grandit en Pennsylvanie et sort major de sa classe,.
 </t>
         </is>
       </c>
@@ -545,10 +557,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleanor Montague obtient une licence en biologie de l'université de l'Alabama et un diplôme de médecine du Woman's Medical College de Pennsylvanie en 1950. Elle rencontre son mari, Meredith "Monty" Eleanor Montague III, alors qu'elle travaille aux urgences du Kings County Hospital Center et l'épouse quelques années plus tard. Elle travaille au Japon pendant deux ans alors que son mari y est stationné dans une unité MASH. Elle fait sa résidence en radiologie au Columbia-Presbyterian Medical Center. En 1959, Montague rejoint le département de radiothérapie du MD Anderson Cancer Center de l'université du Texas à Austin grâce à une bourse de l'American Cancer Society. Elle travaille au MD Anderson de 1961 à 1983. En 1973, elle devient professeure de radiothérapie et prend sa retraite en 1987.
+Eleanor Montague est une pionnière de la recherche et du traitement du cancer du sein. Dans les années 1960-70, la mastectomie est considérée comme le seul remède contre ce cancer. Elle préconise plutôt la tumorectomie, une chirurgie plus modérée, associée à la radiothérapie pour préserver la fonction et l'apparence du sein chez les patientes atteintes d'un cancer du sein à un stade précoce. À la suite d'essais cliniques et d'un programme de traitement lancé par Eleanor Montague à Anderson, la thérapie de conservation du sein devient une pratique établie aux États-Unis. Eleanor Montague est également à l'origine de nouvelles techniques et approches de radiothérapie pour les patientes atteintes d'un cancer du sein avancé et ouvre la voie à l'intégration de la chimiothérapie dans une approche thérapeutique multimodale.
+Un prix portant son nom, le Eleanor Montague Distinguished Resident Award in Radiation Oncology, est créé par l'American Association for Women Radiologists.
+Elle est membre du conseil d'administration de l'American Cancer Society of Therapeutic Radiologists et de l'exécutif de l'American Radium Society. Eleanor Montague fait partie du National Breast Cancer Task Force et du National Surgical Adjuvant Breast Project.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eleanor_Montague</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eleanor_Montague</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eleanor Montague était un universitaire prolifique, publiant plus de 100 articles au cours de sa carrière. Voici une liste partielle de ses publications :
 (en) Eleanor Montague, E. D., « Current cancer concepts. radiation management of advanced breast cancer », The Journal of the American Medical Association, vol. 200, no 7,‎ 2007, p. 312.
@@ -564,31 +618,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Eleanor_Montague</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eleanor_Montague</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Médaille Janeway de l'American Radium Society en 1985
 Médaille d'or de la Radiological Society of North America en 1986
